--- a/data/trans_orig/P16A20-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A20-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2740</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7600</v>
+        <v>8467</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004690550799785245</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001395611525019213</v>
+        <v>0.001384126230665808</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01301019721326142</v>
+        <v>0.01449420951445454</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4881</v>
+        <v>4605</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0009727007083889016</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.005291802926668261</v>
+        <v>0.004993073857455423</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -786,19 +786,19 @@
         <v>3637</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>898</v>
+        <v>1033</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8426</v>
+        <v>9075</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002414311652131515</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0005958104656605618</v>
+        <v>0.0006859853297268258</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00559325443450783</v>
+        <v>0.006024271804347446</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>581401</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>576541</v>
+        <v>575674</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>583326</v>
+        <v>583332</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9953094492002148</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9869898027867388</v>
+        <v>0.9855057904855444</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9986043884749808</v>
+        <v>0.9986158737693341</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>884</v>
@@ -836,7 +836,7 @@
         <v>921436</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>917452</v>
+        <v>917728</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>922333</v>
@@ -845,7 +845,7 @@
         <v>0.999027299291611</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9947081970733326</v>
+        <v>0.9950069261425442</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>1502837</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1498048</v>
+        <v>1497399</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1505576</v>
+        <v>1505441</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9975856883478685</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9944067455654921</v>
+        <v>0.9939757281956525</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9994041895343394</v>
+        <v>0.9993140146702731</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>3820</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9362</v>
+        <v>9758</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003543999816431775</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0009241903957861444</v>
+        <v>0.0009136843816054556</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008685687753706671</v>
+        <v>0.009052526724253754</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -982,19 +982,19 @@
         <v>6856</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2837</v>
+        <v>2875</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12941</v>
+        <v>13571</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006482910409138479</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002682178774571175</v>
+        <v>0.002718200157973192</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01223676497433654</v>
+        <v>0.01283302857437168</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>10676</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5819</v>
+        <v>5917</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18856</v>
+        <v>18150</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004999447513968745</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002725113119121326</v>
+        <v>0.002770818873951017</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008830174040171748</v>
+        <v>0.008499600879435562</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1074074</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1068532</v>
+        <v>1068136</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1076898</v>
+        <v>1076909</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9964560001835683</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9913143122462927</v>
+        <v>0.9909474732757459</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9990758096042138</v>
+        <v>0.9990863156183946</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1021</v>
@@ -1053,19 +1053,19 @@
         <v>1050682</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1044597</v>
+        <v>1043967</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1054701</v>
+        <v>1054663</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9935170895908615</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9877632350256633</v>
+        <v>0.9871669714256281</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9973178212254288</v>
+        <v>0.9972817998420267</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2072</v>
@@ -1074,19 +1074,19 @@
         <v>2124756</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2116576</v>
+        <v>2117282</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2129613</v>
+        <v>2129515</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9950005524860313</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9911698259598279</v>
+        <v>0.9915003991205644</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9972748868808786</v>
+        <v>0.997229181126049</v>
       </c>
     </row>
     <row r="9">
@@ -1181,16 +1181,16 @@
         <v>1730</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10550</v>
+        <v>10544</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004329957247671914</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001543484854449846</v>
+        <v>0.001544282198337524</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009414891153513004</v>
+        <v>0.009409488167413865</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1199,19 +1199,19 @@
         <v>10074</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4799</v>
+        <v>4909</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17774</v>
+        <v>18642</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01013496280636959</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004827824595780079</v>
+        <v>0.00493921884962652</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01788262743853255</v>
+        <v>0.01875549525522889</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -1220,19 +1220,19 @@
         <v>14926</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8763</v>
+        <v>8933</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24996</v>
+        <v>25049</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007058631667367656</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004144296707023703</v>
+        <v>0.00422470828054955</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01182121212116223</v>
+        <v>0.01184624993720173</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>1115724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1110026</v>
+        <v>1110032</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>1118846</v>
@@ -1258,10 +1258,10 @@
         <v>0.9956700427523281</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9905851088464868</v>
+        <v>0.9905905118325866</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9984565151455501</v>
+        <v>0.9984557178016624</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>972</v>
@@ -1270,19 +1270,19 @@
         <v>983866</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>976166</v>
+        <v>975298</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>989141</v>
+        <v>989031</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9898650371936304</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9821173725614676</v>
+        <v>0.9812445047447712</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.99517217540422</v>
+        <v>0.9950607811503736</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2069</v>
@@ -1291,19 +1291,19 @@
         <v>2099590</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2089520</v>
+        <v>2089467</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2105753</v>
+        <v>2105583</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9929413683326324</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9881787878788374</v>
+        <v>0.9881537500627983</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9958557032929762</v>
+        <v>0.9957752917194503</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>3050</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8262</v>
+        <v>8297</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006820577053021558</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00215152665444999</v>
+        <v>0.002159582238911459</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0184743428905061</v>
+        <v>0.01855344419129443</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5567</v>
+        <v>4684</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002743878240543942</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01631831486875029</v>
+        <v>0.01373003866467803</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1437,19 +1437,19 @@
         <v>3986</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1053</v>
+        <v>1008</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9956</v>
+        <v>9120</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00505640471539026</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001335705864812282</v>
+        <v>0.001278928287634349</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01262837282388222</v>
+        <v>0.01156868228253353</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>444150</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>438938</v>
+        <v>438903</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>446238</v>
+        <v>446234</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9931794229469785</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9815256571094937</v>
+        <v>0.9814465558087057</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.99784847334555</v>
+        <v>0.9978404177610886</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>338</v>
@@ -1487,7 +1487,7 @@
         <v>340222</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>335591</v>
+        <v>336474</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>341158</v>
@@ -1496,7 +1496,7 @@
         <v>0.9972561217594561</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9836816851312497</v>
+        <v>0.986269961335322</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1508,19 +1508,19 @@
         <v>784372</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>778402</v>
+        <v>779238</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>787305</v>
+        <v>787350</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9949435952846097</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9873716271761178</v>
+        <v>0.9884313177174666</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9986642941351878</v>
+        <v>0.9987210717123656</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>14462</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8399</v>
+        <v>8439</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23194</v>
+        <v>22565</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004477725353618383</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002600519385862652</v>
+        <v>0.002612721566051767</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007181258375062716</v>
+        <v>0.006986422281911676</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1633,19 +1633,19 @@
         <v>18763</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11527</v>
+        <v>11811</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29773</v>
+        <v>29447</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005659997661309807</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00347727009938308</v>
+        <v>0.003562796868256455</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.008981276516999578</v>
+        <v>0.008882984812834423</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -1654,19 +1654,19 @@
         <v>33225</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23572</v>
+        <v>23557</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46534</v>
+        <v>45764</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005076553101793166</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00360160995880719</v>
+        <v>0.003599361905897159</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007110100653096738</v>
+        <v>0.00699239109996843</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3215349</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3206617</v>
+        <v>3207246</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3221412</v>
+        <v>3221372</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9955222746463817</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9928187416249371</v>
+        <v>0.9930135777180883</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.997399480614137</v>
+        <v>0.9973872784339483</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3215</v>
@@ -1704,19 +1704,19 @@
         <v>3296206</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3285196</v>
+        <v>3285522</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3303442</v>
+        <v>3303158</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9943400023386902</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9910187234830005</v>
+        <v>0.9911170151871653</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9965227299006169</v>
+        <v>0.9964372031317436</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6367</v>
@@ -1725,19 +1725,19 @@
         <v>6511555</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6498246</v>
+        <v>6499016</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6521208</v>
+        <v>6521223</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9949234468982069</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9928898993469033</v>
+        <v>0.9930076089000317</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9963983900411928</v>
+        <v>0.996400638094103</v>
       </c>
     </row>
     <row r="18">
@@ -2072,16 +2072,16 @@
         <v>922</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7906</v>
+        <v>8280</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002833117289340551</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0008852257012947134</v>
+        <v>0.0008851541956641893</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.007589021841354081</v>
+        <v>0.007947912981451997</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -2090,19 +2090,19 @@
         <v>38375</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26906</v>
+        <v>27001</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51487</v>
+        <v>52288</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03442196437975351</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02413412667826421</v>
+        <v>0.02422010535098282</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04618362988510568</v>
+        <v>0.04690185879216488</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -2111,19 +2111,19 @@
         <v>41326</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29749</v>
+        <v>29429</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56061</v>
+        <v>56615</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01916235512470101</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01379419019695354</v>
+        <v>0.01364584149048179</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02599440426630772</v>
+        <v>0.02625161943761979</v>
       </c>
     </row>
     <row r="5">
@@ -2140,7 +2140,7 @@
         <v>1038856</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1033902</v>
+        <v>1033528</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>1040886</v>
@@ -2149,10 +2149,10 @@
         <v>0.9971668827106595</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.992410978158646</v>
+        <v>0.992052087018548</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9991147742987052</v>
+        <v>0.9991148458043358</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>992</v>
@@ -2161,19 +2161,19 @@
         <v>1076459</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1063347</v>
+        <v>1062546</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1087928</v>
+        <v>1087833</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9655780356202465</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9538163701148942</v>
+        <v>0.9530981412078351</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9758658733217358</v>
+        <v>0.9757798946490172</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1965</v>
@@ -2182,19 +2182,19 @@
         <v>2115317</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2100582</v>
+        <v>2100028</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2126894</v>
+        <v>2127214</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.980837644875299</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9740055957336922</v>
+        <v>0.9737483805623798</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9862058098030464</v>
+        <v>0.9863541585095181</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>3047</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9244</v>
+        <v>8278</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003126210051959778</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0009707157374364778</v>
+        <v>0.0009731429586098566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009485914511653953</v>
+        <v>0.008493861855847388</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -2307,19 +2307,19 @@
         <v>34388</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22065</v>
+        <v>23599</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48667</v>
+        <v>48108</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03148544216044145</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02020322309584185</v>
+        <v>0.02160772074475717</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04455961735884535</v>
+        <v>0.04404800171797008</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -2328,19 +2328,19 @@
         <v>37434</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26208</v>
+        <v>26022</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50666</v>
+        <v>51654</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01811300390472601</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01268105122863669</v>
+        <v>0.01259109647280399</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02451518042631121</v>
+        <v>0.02499352363050716</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>971482</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>965285</v>
+        <v>966251</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>973583</v>
+        <v>973581</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9968737899480402</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.990514085488347</v>
+        <v>0.9915061381441527</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9990292842625635</v>
+        <v>0.9990268570413902</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>987</v>
@@ -2378,19 +2378,19 @@
         <v>1057789</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1043510</v>
+        <v>1044069</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1070112</v>
+        <v>1068578</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9685145578395585</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9554403826411542</v>
+        <v>0.9559519982820297</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9797967769041579</v>
+        <v>0.9783922792552429</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1905</v>
@@ -2399,19 +2399,19 @@
         <v>2029273</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2016041</v>
+        <v>2015053</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2040499</v>
+        <v>2040685</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.981886996095274</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9754848195736888</v>
+        <v>0.9750064763694932</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9873189487713633</v>
+        <v>0.987408903527196</v>
       </c>
     </row>
     <row r="9">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6862</v>
+        <v>6002</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002225891689742031</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.007760803858307496</v>
+        <v>0.006788291752053072</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -2524,19 +2524,19 @@
         <v>35854</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25621</v>
+        <v>25811</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49796</v>
+        <v>50475</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0410309237052326</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02932058964207002</v>
+        <v>0.02953794543916929</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05698622162760783</v>
+        <v>0.05776367257545321</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -2545,19 +2545,19 @@
         <v>37822</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26486</v>
+        <v>26847</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52490</v>
+        <v>51781</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02151406357097412</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01506604027309647</v>
+        <v>0.01527104203963862</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02985779069010002</v>
+        <v>0.02945415166117145</v>
       </c>
     </row>
     <row r="11">
@@ -2574,7 +2574,7 @@
         <v>882217</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>877323</v>
+        <v>878183</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>884185</v>
@@ -2583,7 +2583,7 @@
         <v>0.9977741083102579</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9922391961416925</v>
+        <v>0.993211708247947</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2595,19 +2595,19 @@
         <v>837971</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>824029</v>
+        <v>823350</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>848204</v>
+        <v>848014</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9589690762947674</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9430137783723921</v>
+        <v>0.9422363274245469</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9706794103579299</v>
+        <v>0.9704620545608308</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1612</v>
@@ -2616,19 +2616,19 @@
         <v>1720188</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1705520</v>
+        <v>1706229</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1731524</v>
+        <v>1731163</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9784859364290259</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9701422093098999</v>
+        <v>0.9705458483388284</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9849339597269035</v>
+        <v>0.9847289579603613</v>
       </c>
     </row>
     <row r="12">
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4752</v>
+        <v>4721</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001870984766648812</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009447718433814685</v>
+        <v>0.009384558187747308</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -2741,19 +2741,19 @@
         <v>13533</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7266</v>
+        <v>7073</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22803</v>
+        <v>23072</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03001631428731986</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01611533605724157</v>
+        <v>0.0156882999643476</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05057507727592309</v>
+        <v>0.05117246262761417</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -2762,19 +2762,19 @@
         <v>14475</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8113</v>
+        <v>8569</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23643</v>
+        <v>24226</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01517421941098543</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008505124267461951</v>
+        <v>0.008982796697399818</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02478564686223865</v>
+        <v>0.02539720220039386</v>
       </c>
     </row>
     <row r="14">
@@ -2791,7 +2791,7 @@
         <v>502082</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>498271</v>
+        <v>498302</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>503023</v>
@@ -2800,7 +2800,7 @@
         <v>0.9981290152333512</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9905522815661854</v>
+        <v>0.9906154418122527</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2812,19 +2812,19 @@
         <v>437335</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>428065</v>
+        <v>427796</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>443602</v>
+        <v>443795</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9699836857126801</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9494249227240769</v>
+        <v>0.948827537372386</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9838846639427584</v>
+        <v>0.9843117000356525</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>858</v>
@@ -2833,19 +2833,19 @@
         <v>939416</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>930248</v>
+        <v>929665</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>945778</v>
+        <v>945322</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9848257805890146</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9752143531377614</v>
+        <v>0.9746027977996062</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.991494875732538</v>
+        <v>0.9910172033026005</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>8907</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4014</v>
+        <v>4713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16024</v>
+        <v>16034</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002617093515044722</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001179285705926745</v>
+        <v>0.001384595458105429</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.004708077293702206</v>
+        <v>0.00471100511862008</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>112</v>
@@ -2958,19 +2958,19 @@
         <v>122150</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>100861</v>
+        <v>99849</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>146013</v>
+        <v>144083</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0345866165662379</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02855878056880226</v>
+        <v>0.02827225798625825</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04134346126396065</v>
+        <v>0.04079702622721979</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>121</v>
@@ -2979,19 +2979,19 @@
         <v>131057</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>110737</v>
+        <v>109474</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>155172</v>
+        <v>158198</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01889724288116359</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01596732767884268</v>
+        <v>0.0157851233255083</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02237445401803458</v>
+        <v>0.02281073626941357</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3394639</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3387522</v>
+        <v>3387512</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3399532</v>
+        <v>3398833</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9973829064849553</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9952919227062977</v>
+        <v>0.99528899488138</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9988207142940733</v>
+        <v>0.9986154045418946</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3162</v>
@@ -3029,19 +3029,19 @@
         <v>3409554</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3385691</v>
+        <v>3387621</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3430843</v>
+        <v>3431855</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9654133834337622</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9586565387360395</v>
+        <v>0.9592029737727803</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9714412194311978</v>
+        <v>0.9717277420137418</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6340</v>
@@ -3050,19 +3050,19 @@
         <v>6804193</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6780078</v>
+        <v>6777052</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6824513</v>
+        <v>6825776</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9811027571188364</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9776255459819654</v>
+        <v>0.9771892637305862</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9840326723211574</v>
+        <v>0.9842148766744916</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>4396</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11834</v>
+        <v>11202</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003897179319569448</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001010739232181224</v>
+        <v>0.001012981824017161</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01049127178569301</v>
+        <v>0.009931195406161289</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -3415,19 +3415,19 @@
         <v>52084</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38869</v>
+        <v>37314</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>68947</v>
+        <v>67194</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0413507899068904</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03085912835019983</v>
+        <v>0.02962465045348682</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05473912678625198</v>
+        <v>0.05334727646153584</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -3436,19 +3436,19 @@
         <v>56480</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42952</v>
+        <v>43705</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>72827</v>
+        <v>74039</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02365590291336407</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01798981412773512</v>
+        <v>0.01830513169212414</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03050250572144659</v>
+        <v>0.03101025876550924</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1123601</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1116163</v>
+        <v>1116795</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1126857</v>
+        <v>1126854</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9961028206804305</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9895087282143078</v>
+        <v>0.9900688045938387</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9989892607678188</v>
+        <v>0.9989870181759829</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1140</v>
@@ -3486,19 +3486,19 @@
         <v>1207477</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1190614</v>
+        <v>1192367</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1220692</v>
+        <v>1222247</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9586492100931097</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9452608732137481</v>
+        <v>0.9466527235384642</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9691408716498001</v>
+        <v>0.9703753495465132</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2202</v>
@@ -3507,19 +3507,19 @@
         <v>2331078</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2314731</v>
+        <v>2313519</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2344606</v>
+        <v>2343853</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9763440970866359</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9694974942785535</v>
+        <v>0.9689897412344908</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9820101858722649</v>
+        <v>0.9816948683078759</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>3906</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>934</v>
+        <v>1013</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9754</v>
+        <v>9779</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00429791705304113</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001027285806400146</v>
+        <v>0.001114919954639552</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01073237881736779</v>
+        <v>0.01076043802299595</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -3632,19 +3632,19 @@
         <v>50604</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37592</v>
+        <v>37703</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>67868</v>
+        <v>68159</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05027812347243649</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03735003440443003</v>
+        <v>0.03746076234594813</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0674315164206869</v>
+        <v>0.06772013975707929</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -3653,19 +3653,19 @@
         <v>54510</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41224</v>
+        <v>40974</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70013</v>
+        <v>71435</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02846015799215661</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02152354194749909</v>
+        <v>0.02139297092158366</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03655464421939831</v>
+        <v>0.03729710494076891</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>904919</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>899071</v>
+        <v>899046</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>907891</v>
+        <v>907812</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9957020829469588</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9892676211826322</v>
+        <v>0.989239561977004</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9989727141935998</v>
+        <v>0.9988850800453605</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>906</v>
@@ -3703,19 +3703,19 @@
         <v>955871</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>938607</v>
+        <v>938316</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>968883</v>
+        <v>968772</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9497218765275635</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.932568483579313</v>
+        <v>0.9322798602429206</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9626499655955699</v>
+        <v>0.9625392376540518</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1783</v>
@@ -3724,19 +3724,19 @@
         <v>1860790</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1845287</v>
+        <v>1843865</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1874076</v>
+        <v>1874326</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9715398420078434</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9634453557806016</v>
+        <v>0.9627028950592309</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9784764580525008</v>
+        <v>0.978607029078416</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>2920</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8116</v>
+        <v>8379</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003544263617847377</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001121047837534653</v>
+        <v>0.001134668283711722</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009851843880068384</v>
+        <v>0.01017107774358698</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -3849,19 +3849,19 @@
         <v>26186</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16824</v>
+        <v>17232</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36428</v>
+        <v>38617</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03396148296827026</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.021819946613537</v>
+        <v>0.0223484693696692</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04724385606397289</v>
+        <v>0.05008304412389793</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -3870,19 +3870,19 @@
         <v>29106</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19950</v>
+        <v>19339</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41666</v>
+        <v>40381</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01825030634769379</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01250923736860804</v>
+        <v>0.01212639054495136</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02612557266592028</v>
+        <v>0.02532007785022606</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>820839</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>815643</v>
+        <v>815380</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>822836</v>
+        <v>822824</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9964557363821526</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9901481561199306</v>
+        <v>0.9898289222564124</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9988789521624654</v>
+        <v>0.9988653317162882</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>703</v>
@@ -3920,19 +3920,19 @@
         <v>744873</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>734631</v>
+        <v>732442</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>754235</v>
+        <v>753827</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9660385170317297</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9527561439360273</v>
+        <v>0.9499169558761023</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9781800533864633</v>
+        <v>0.9776515306303308</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1487</v>
@@ -3941,19 +3941,19 @@
         <v>1565712</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1553152</v>
+        <v>1554437</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1574868</v>
+        <v>1575479</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9817496936523062</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9738744273340797</v>
+        <v>0.9746799221497741</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.987490762631392</v>
+        <v>0.9878736094550487</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>3050</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8113</v>
+        <v>8138</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006018714630511131</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00187245387863893</v>
+        <v>0.001887730733760249</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01601078674909682</v>
+        <v>0.0160597872586303</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -4066,19 +4066,19 @@
         <v>26768</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17382</v>
+        <v>17063</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38810</v>
+        <v>39234</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05466150640043427</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03549587096913743</v>
+        <v>0.03484362864352181</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07925382457529855</v>
+        <v>0.08011939325377383</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -4087,19 +4087,19 @@
         <v>29817</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20732</v>
+        <v>20396</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42870</v>
+        <v>42664</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02992507053738302</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02080673596112495</v>
+        <v>0.02047020872747541</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04302543003566498</v>
+        <v>0.04281853187526203</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>503651</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>498588</v>
+        <v>498563</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505752</v>
+        <v>505744</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9939812853694888</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9839892132509032</v>
+        <v>0.9839402127413697</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9981275461213611</v>
+        <v>0.9981122692662397</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>430</v>
@@ -4137,19 +4137,19 @@
         <v>462930</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>450888</v>
+        <v>450464</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>472316</v>
+        <v>472635</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9453384935995657</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9207461754247013</v>
+        <v>0.9198806067462264</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9645041290308626</v>
+        <v>0.9651563713564782</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>898</v>
@@ -4158,19 +4158,19 @@
         <v>966581</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>953528</v>
+        <v>953734</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>975666</v>
+        <v>976002</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.970074929462617</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9569745699643351</v>
+        <v>0.957181468124738</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9791932640388752</v>
+        <v>0.9795297912725246</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>14271</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8123</v>
+        <v>8291</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23369</v>
+        <v>23411</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004238245649228064</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002412303119614323</v>
+        <v>0.002462357453938681</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.006939985659676842</v>
+        <v>0.006952437825145237</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>143</v>
@@ -4283,19 +4283,19 @@
         <v>155641</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>132958</v>
+        <v>131038</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>184058</v>
+        <v>181994</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04413115661161168</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03769936673448751</v>
+        <v>0.03715500821150564</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05218852534424843</v>
+        <v>0.05160327546994156</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>157</v>
@@ -4304,19 +4304,19 @@
         <v>169913</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>143426</v>
+        <v>145601</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>197493</v>
+        <v>197035</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02464620776998331</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02080419826448065</v>
+        <v>0.02111975210252622</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02864674697768813</v>
+        <v>0.02858032022574218</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3353011</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3343913</v>
+        <v>3343871</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3359159</v>
+        <v>3358991</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.995761754350772</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9930600143403232</v>
+        <v>0.9930475621748538</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9975876968803856</v>
+        <v>0.9975376425460613</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3179</v>
@@ -4354,19 +4354,19 @@
         <v>3371151</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3342734</v>
+        <v>3344798</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3393834</v>
+        <v>3395754</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9558688433883883</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9478114746557514</v>
+        <v>0.9483967245300584</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9623006332655124</v>
+        <v>0.9628449917884944</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6370</v>
@@ -4375,19 +4375,19 @@
         <v>6724162</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6696582</v>
+        <v>6697040</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6750649</v>
+        <v>6748474</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9753537922300167</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9713532530223119</v>
+        <v>0.9714196797742578</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9791958017355193</v>
+        <v>0.9788802478974737</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>9292</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3901</v>
+        <v>3494</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21583</v>
+        <v>21575</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01863063473311271</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007822258035248691</v>
+        <v>0.007006131927000654</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04327435597225984</v>
+        <v>0.04325991037689276</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -4740,19 +4740,19 @@
         <v>49711</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40003</v>
+        <v>40270</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63026</v>
+        <v>62821</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07981103193017959</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06422535685637966</v>
+        <v>0.06465395721553063</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1011886829567291</v>
+        <v>0.1008597714202585</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>84</v>
@@ -4761,19 +4761,19 @@
         <v>59003</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46466</v>
+        <v>46337</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>74439</v>
+        <v>74906</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05260597947363238</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04142827368996711</v>
+        <v>0.04131363936236748</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06636849368365852</v>
+        <v>0.06678538308774055</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>489447</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>477156</v>
+        <v>477164</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>494838</v>
+        <v>495245</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9813693652668872</v>
+        <v>0.9813693652668873</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9567256440277402</v>
+        <v>0.9567400896231072</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9921777419647514</v>
+        <v>0.9929938680729993</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>783</v>
@@ -4811,19 +4811,19 @@
         <v>573145</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>559830</v>
+        <v>560035</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>582853</v>
+        <v>582586</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9201889680698205</v>
+        <v>0.9201889680698203</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8988113170432713</v>
+        <v>0.8991402285797415</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9357746431436206</v>
+        <v>0.9353460427844694</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1231</v>
@@ -4832,19 +4832,19 @@
         <v>1062593</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1047157</v>
+        <v>1046690</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1075130</v>
+        <v>1075259</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9473940205263677</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9336315063163416</v>
+        <v>0.9332146169122597</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.958571726310033</v>
+        <v>0.9586863606376325</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>8226</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4179</v>
+        <v>4351</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15012</v>
+        <v>14973</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008567016546696679</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004352624112145226</v>
+        <v>0.004532161432110171</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.015635132887582</v>
+        <v>0.01559462546318012</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>135</v>
@@ -4957,19 +4957,19 @@
         <v>85348</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71968</v>
+        <v>70944</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>103084</v>
+        <v>100736</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07652847426465338</v>
+        <v>0.07652847426465337</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06453112313672502</v>
+        <v>0.06361276500362818</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09243203180750952</v>
+        <v>0.09032592599871306</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>146</v>
@@ -4978,19 +4978,19 @@
         <v>93574</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79426</v>
+        <v>79099</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110266</v>
+        <v>110476</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04508739003927154</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03827043475741644</v>
+        <v>0.03811274542095878</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05313037969066451</v>
+        <v>0.05323141111872474</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>951911</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>945125</v>
+        <v>945164</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>955958</v>
+        <v>955786</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9914329834533034</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9843648671124168</v>
+        <v>0.9844053745368195</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9956473758878546</v>
+        <v>0.9954678385678899</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1471</v>
@@ -5028,19 +5028,19 @@
         <v>1029898</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1012162</v>
+        <v>1014510</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1043278</v>
+        <v>1044302</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9234715257353467</v>
+        <v>0.9234715257353469</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9075679681924911</v>
+        <v>0.909674074001287</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9354688768632752</v>
+        <v>0.9363872349963718</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2370</v>
@@ -5049,19 +5049,19 @@
         <v>1981809</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1965117</v>
+        <v>1964907</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1995957</v>
+        <v>1996284</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9549126099607285</v>
+        <v>0.9549126099607284</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9468696203093356</v>
+        <v>0.9467685888812752</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9617295652425835</v>
+        <v>0.9618872545790413</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>16503</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9930</v>
+        <v>10285</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25608</v>
+        <v>25549</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01576962644736509</v>
+        <v>0.01576962644736508</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00948934570593654</v>
+        <v>0.00982850574586413</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0244708639537145</v>
+        <v>0.02441377418836306</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>144</v>
@@ -5174,19 +5174,19 @@
         <v>94873</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>80060</v>
+        <v>79644</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>112047</v>
+        <v>112395</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09059103474717323</v>
+        <v>0.09059103474717324</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07644693686550973</v>
+        <v>0.07605013860574376</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1069902379915403</v>
+        <v>0.1073222701039518</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>163</v>
@@ -5195,19 +5195,19 @@
         <v>111375</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>94080</v>
+        <v>95220</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130284</v>
+        <v>129789</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05319433179132493</v>
+        <v>0.05319433179132494</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04493404689267093</v>
+        <v>0.04547846359271741</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06222541063039898</v>
+        <v>0.06198909649276656</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1029976</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1020871</v>
+        <v>1020930</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1036549</v>
+        <v>1036194</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9842303735526349</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9755291360462857</v>
+        <v>0.9755862258116369</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9905106542940637</v>
+        <v>0.9901714942541358</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1371</v>
@@ -5245,19 +5245,19 @@
         <v>952390</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>935216</v>
+        <v>934868</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>967203</v>
+        <v>967619</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9094089652528268</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8930097620084599</v>
+        <v>0.8926777298960484</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9235530631344904</v>
+        <v>0.9239498613942566</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2381</v>
@@ -5266,19 +5266,19 @@
         <v>1982367</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1963458</v>
+        <v>1963953</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1999662</v>
+        <v>1998522</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.946805668208675</v>
+        <v>0.9468056682086752</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9377745893696011</v>
+        <v>0.9380109035072335</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9550659531073292</v>
+        <v>0.9545215364072828</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>13384</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7402</v>
+        <v>7413</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22802</v>
+        <v>22539</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01371376947018446</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007584583016041061</v>
+        <v>0.00759583034008901</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02336421481802289</v>
+        <v>0.02309475301115794</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>123</v>
@@ -5391,19 +5391,19 @@
         <v>74420</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>61925</v>
+        <v>62470</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88759</v>
+        <v>90399</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08190224161634686</v>
+        <v>0.08190224161634684</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06815130766633416</v>
+        <v>0.06875128295887811</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09768349232315418</v>
+        <v>0.09948786826024751</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>137</v>
@@ -5412,19 +5412,19 @@
         <v>87803</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73014</v>
+        <v>72688</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>104705</v>
+        <v>104414</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04659069835095049</v>
+        <v>0.04659069835095048</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03874329571169503</v>
+        <v>0.03856998252488714</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05555886540892965</v>
+        <v>0.05540473186739096</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>962545</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>953127</v>
+        <v>953390</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>968527</v>
+        <v>968516</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9862862305298156</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.976635785181977</v>
+        <v>0.9769052469888412</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.992415416983959</v>
+        <v>0.9924041696599109</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1198</v>
@@ -5462,19 +5462,19 @@
         <v>834222</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>819883</v>
+        <v>818243</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>846717</v>
+        <v>846172</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9180977583836533</v>
+        <v>0.9180977583836532</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9023165076768458</v>
+        <v>0.9005121317397522</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9318486923336659</v>
+        <v>0.9312487170411219</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2131</v>
@@ -5483,19 +5483,19 @@
         <v>1796768</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1779866</v>
+        <v>1780157</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1811557</v>
+        <v>1811883</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9534093016490496</v>
+        <v>0.9534093016490494</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9444411345910703</v>
+        <v>0.9445952681326092</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9612567042883055</v>
+        <v>0.9614300174751124</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>47404</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35473</v>
+        <v>35919</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63077</v>
+        <v>66366</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01361669592262742</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01018957757408363</v>
+        <v>0.01031778324321821</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01811903225389171</v>
+        <v>0.01906358792824671</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>479</v>
@@ -5608,19 +5608,19 @@
         <v>304351</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>277871</v>
+        <v>279295</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>334456</v>
+        <v>336414</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08239056026083572</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07522214856212128</v>
+        <v>0.0756075246586482</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09054012246995394</v>
+        <v>0.09107011931185752</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>530</v>
@@ -5629,19 +5629,19 @@
         <v>351755</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>321713</v>
+        <v>321523</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>384542</v>
+        <v>383756</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04902308416127287</v>
+        <v>0.04902308416127289</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04483627541467466</v>
+        <v>0.04480970497914776</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05359247336814865</v>
+        <v>0.05348296642044752</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3433880</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3418207</v>
+        <v>3414918</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3445811</v>
+        <v>3445365</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9863833040773725</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9818809677461084</v>
+        <v>0.9809364120717535</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9898104224259164</v>
+        <v>0.989682216756782</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4823</v>
@@ -5679,19 +5679,19 @@
         <v>3389657</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3359552</v>
+        <v>3357594</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3416137</v>
+        <v>3414713</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9176094397391642</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9094598775300461</v>
+        <v>0.9089298806881424</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9247778514378788</v>
+        <v>0.9243924753413516</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8113</v>
@@ -5700,19 +5700,19 @@
         <v>6823537</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6790750</v>
+        <v>6791536</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6853579</v>
+        <v>6853769</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.950976915838727</v>
+        <v>0.9509769158387271</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9464075266318511</v>
+        <v>0.9465170335795525</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9551637245853254</v>
+        <v>0.9551902950208526</v>
       </c>
     </row>
     <row r="18">
